--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287BD9E4-A6FF-634D-83C7-D755AC4A90FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263F4983-1A44-2D46-A882-722F680D33CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21860" yWindow="820" windowWidth="16220" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>Value</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>English sole</t>
-  </si>
-  <si>
-    <t>Pctrale sole</t>
   </si>
   <si>
     <t xml:space="preserve">Rock fish </t>
@@ -548,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -678,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3">
         <v>54027</v>
@@ -692,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>37940</v>
@@ -706,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <v>26903</v>
@@ -720,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>17613</v>
@@ -734,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>14192</v>
@@ -748,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3">
         <v>11562</v>
@@ -762,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
         <v>8100</v>
@@ -776,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3">
         <v>18480</v>
@@ -790,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <v>1386048</v>
@@ -801,7 +798,7 @@
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6">
         <f>SUM(C4:C17)-C18</f>
@@ -817,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3">
         <v>417916</v>
@@ -831,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3">
         <v>104149</v>
@@ -845,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3">
         <v>81161</v>
@@ -859,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>78635</v>
@@ -887,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
         <v>49078</v>
@@ -901,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3">
         <v>41140</v>
@@ -915,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3">
         <v>21618</v>
@@ -929,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3">
         <v>19452</v>
@@ -943,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
         <v>13678</v>
@@ -971,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3">
         <v>5303</v>
@@ -985,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3">
         <v>10581</v>
@@ -999,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="3">
         <v>905210</v>
@@ -1010,7 +1007,7 @@
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6">
         <f>SUM(C20:C32)-C33</f>
@@ -1026,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3">
         <v>468765</v>
@@ -1040,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="3">
         <v>305611</v>
@@ -1054,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="3">
         <v>60730</v>
@@ -1068,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>40668</v>
@@ -1082,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3">
         <v>14396</v>
@@ -1096,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="3">
         <v>890170</v>
@@ -1107,7 +1104,7 @@
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="6">
         <f>SUM(C35:C39)-C40</f>
@@ -1123,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3">
         <v>137020</v>
@@ -1137,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3">
         <v>78340</v>
@@ -1151,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3">
         <v>65864</v>
@@ -1165,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3">
         <v>47411</v>
@@ -1179,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3">
         <v>46842</v>
@@ -1193,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3">
         <v>14610</v>
@@ -1207,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3">
         <v>13133</v>
@@ -1221,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="3">
         <v>12794</v>
@@ -1235,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="3">
         <v>12549</v>
@@ -1249,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3">
         <v>10077</v>
@@ -1263,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="3">
         <v>5422</v>
@@ -1277,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="3">
         <v>444062</v>
@@ -1288,7 +1285,7 @@
     </row>
     <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="6">
         <f>SUM(C42:C52)-C53</f>
@@ -1318,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="3">
         <v>9981</v>
@@ -1332,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="3">
         <v>254</v>
@@ -1346,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="3">
         <v>80080</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="6">
         <f>SUM(C55:C57)-C58</f>
@@ -1373,7 +1370,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="3">
         <v>12054</v>
@@ -1387,7 +1384,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="3">
         <v>482</v>
@@ -1401,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62" s="3">
         <v>12536</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="6">
         <f>SUM(C60:C61)-C62</f>
@@ -1428,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="3">
         <v>4242</v>
@@ -1442,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" s="3">
         <v>4242</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263F4983-1A44-2D46-A882-722F680D33CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DED578-AB6A-B647-902E-CE6391135A1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21860" yWindow="820" windowWidth="16220" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>Value</t>
   </si>
@@ -545,14 +545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -572,8 +572,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <v>3722348</v>
